--- a/excel/sprint.xlsx
+++ b/excel/sprint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunogauthier/Documents/guide2024/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160976DE-9126-C24E-AEBE-24D0A936E412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDF846F-C1D9-6248-9282-0103DF8E020C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{FD29B0F2-1663-8540-80A1-3F866C889E60}"/>
   </bookViews>
@@ -112,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -125,6 +125,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,7 +476,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -498,58 +501,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="B2" s="2">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2">
-        <v>131</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D3" s="2">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="C4" s="2">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2">
-        <v>151</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="B5" s="2">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="C5" s="2">
+        <v>72</v>
+      </c>
+      <c r="D5" s="2">
         <v>121</v>
-      </c>
-      <c r="D5" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -577,7 +580,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
